--- a/Final/Book.xlsx
+++ b/Final/Book.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25616"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E611791-31F6-46F7-8AC2-91CDA6475F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Filter Here"/>
+    <sheet name="Filter Here" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,9 +41,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +58,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,40 +94,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C19" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:C19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C19" totalsRowShown="0">
+  <autoFilter ref="A1:C19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn name="Date" id="1"/>
-    <tableColumn name="Queue" id="2"/>
-    <tableColumn name="Time Processed/Count" id="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Queue" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Time Processed/Count"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -114,10 +144,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -155,71 +185,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -247,7 +277,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -270,11 +300,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -283,13 +313,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -299,7 +329,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -308,7 +338,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -317,7 +347,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -325,10 +355,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -393,225 +423,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="38.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="73.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="53.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1">
       <c r="A2" s="2">
         <v>2022</v>
       </c>
-      <c r="B2" s="2">
-        <v>3</v>
+      <c r="B2" s="4">
+        <v>0.47962962962962963</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1">
       <c r="A3" s="2">
         <v>2022</v>
       </c>
-      <c r="B3" s="2">
-        <v>3</v>
+      <c r="B3" s="4">
+        <v>0.52129629629629604</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1">
       <c r="A4" s="2">
         <v>2022</v>
       </c>
-      <c r="B4" s="2">
-        <v>3</v>
+      <c r="B4" s="4">
+        <v>0.562962962962963</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1">
       <c r="A5" s="2">
         <v>2022</v>
       </c>
-      <c r="B5" s="2">
-        <v>3</v>
+      <c r="B5" s="4">
+        <v>0.60462962962962996</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1">
       <c r="A6" s="2">
         <v>2022</v>
       </c>
-      <c r="B6" s="2">
-        <v>3</v>
+      <c r="B6" s="4">
+        <v>0.64629629629629604</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1">
       <c r="A7" s="2">
         <v>2021</v>
       </c>
-      <c r="B7" s="2">
-        <v>3</v>
+      <c r="B7" s="4">
+        <v>0.687962962962963</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
-      <c r="B8" s="2">
-        <v>3</v>
+      <c r="B8" s="4">
+        <v>0.72962962962962996</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1">
       <c r="A9" s="2">
         <v>2021</v>
       </c>
-      <c r="B9" s="2">
-        <v>3</v>
+      <c r="B9" s="4">
+        <v>0.77129629629629604</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1">
       <c r="A10" s="2">
         <v>2021</v>
       </c>
-      <c r="B10" s="2">
-        <v>3</v>
+      <c r="B10" s="4">
+        <v>0.812962962962963</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
-      <c r="B11" s="2">
-        <v>3</v>
+      <c r="B11" s="4">
+        <v>0.85462962962962996</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1">
       <c r="A12" s="2">
         <v>2021</v>
       </c>
-      <c r="B12" s="2">
-        <v>3</v>
+      <c r="B12" s="4">
+        <v>0.89629629629629604</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1">
       <c r="A13" s="2">
         <v>2023</v>
       </c>
-      <c r="B13" s="2">
-        <v>3</v>
+      <c r="B13" s="4">
+        <v>0.937962962962963</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1">
       <c r="A14" s="2">
         <v>2023</v>
       </c>
-      <c r="B14" s="2">
-        <v>3</v>
+      <c r="B14" s="4">
+        <v>0.97962962962962996</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1">
       <c r="A15" s="2">
         <v>2023</v>
       </c>
-      <c r="B15" s="2">
-        <v>3</v>
+      <c r="B15" s="4">
+        <v>1.0212962962962999</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1">
       <c r="A16" s="2">
         <v>2023</v>
       </c>
-      <c r="B16" s="2">
-        <v>3</v>
+      <c r="B16" s="4">
+        <v>1.06296296296296</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:3" ht="18.75" customHeight="1">
       <c r="A17" s="2">
         <v>2023</v>
       </c>
-      <c r="B17" s="2">
-        <v>3</v>
+      <c r="B17" s="4">
+        <v>1.1046296296296301</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1">
       <c r="A18" s="2">
         <v>2023</v>
       </c>
-      <c r="B18" s="2">
-        <v>3</v>
+      <c r="B18" s="4">
+        <v>1.1462962962962999</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:3" ht="18.75" customHeight="1">
       <c r="A19" s="2">
         <v>2023</v>
       </c>
-      <c r="B19" s="2">
-        <v>3</v>
+      <c r="B19" s="4">
+        <v>1.18796296296296</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -623,4 +655,213 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="51734102-0ec5-4be4-9623-959db2f85e56">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b8db1f7e-7e4f-444d-b540-16a7d7e5b49d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001C06D8E4961BAE4EA00F9602EC436AF5" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a1cc8b46cd4621e83d0841628d239bcd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="51734102-0ec5-4be4-9623-959db2f85e56" xmlns:ns3="b8db1f7e-7e4f-444d-b540-16a7d7e5b49d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf4870c515217cd06cd01e175b8a4481" ns2:_="" ns3:_="">
+    <xsd:import namespace="51734102-0ec5-4be4-9623-959db2f85e56"/>
+    <xsd:import namespace="b8db1f7e-7e4f-444d-b540-16a7d7e5b49d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="51734102-0ec5-4be4-9623-959db2f85e56" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="48782a3b-96dd-4253-98f8-992d2dea940b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b8db1f7e-7e4f-444d-b540-16a7d7e5b49d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c07b9f05-4d8a-4113-afe5-8ed96ff0f480}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="b8db1f7e-7e4f-444d-b540-16a7d7e5b49d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E493B776-AE2F-4204-AE96-2DCB5CF1AD04}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC90F5F3-1CE8-4CD3-B157-23DD2AEDB057}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A989DD41-1097-4A9A-8B4C-F7BE1A195CC3}"/>
 </file>
--- a/Final/Book.xlsx
+++ b/Final/Book.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25616"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E611791-31F6-46F7-8AC2-91CDA6475F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEA5DE1A-7A3B-474B-B873-57289C4FB8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -37,14 +37,14 @@
   <si>
     <t>Time Processed/Count</t>
   </si>
+  <si>
+    <t>10:30:20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -102,17 +102,17 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -455,8 +455,8 @@
       <c r="A2" s="2">
         <v>2022</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.47962962962962963</v>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -466,8 +466,8 @@
       <c r="A3" s="2">
         <v>2022</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.52129629629629604</v>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -477,8 +477,8 @@
       <c r="A4" s="2">
         <v>2022</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.562962962962963</v>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -488,8 +488,8 @@
       <c r="A5" s="2">
         <v>2022</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.60462962962962996</v>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -499,8 +499,8 @@
       <c r="A6" s="2">
         <v>2022</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.64629629629629604</v>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -510,8 +510,8 @@
       <c r="A7" s="2">
         <v>2021</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.687962962962963</v>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -521,8 +521,8 @@
       <c r="A8" s="2">
         <v>2021</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.72962962962962996</v>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -532,8 +532,8 @@
       <c r="A9" s="2">
         <v>2021</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.77129629629629604</v>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -543,8 +543,8 @@
       <c r="A10" s="2">
         <v>2021</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.812962962962963</v>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -554,8 +554,8 @@
       <c r="A11" s="2">
         <v>2021</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.85462962962962996</v>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -565,8 +565,8 @@
       <c r="A12" s="2">
         <v>2021</v>
       </c>
-      <c r="B12" s="4">
-        <v>0.89629629629629604</v>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -576,8 +576,8 @@
       <c r="A13" s="2">
         <v>2023</v>
       </c>
-      <c r="B13" s="4">
-        <v>0.937962962962963</v>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -587,8 +587,8 @@
       <c r="A14" s="2">
         <v>2023</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.97962962962962996</v>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -598,8 +598,8 @@
       <c r="A15" s="2">
         <v>2023</v>
       </c>
-      <c r="B15" s="4">
-        <v>1.0212962962962999</v>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -609,8 +609,8 @@
       <c r="A16" s="2">
         <v>2023</v>
       </c>
-      <c r="B16" s="4">
-        <v>1.06296296296296</v>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -620,8 +620,8 @@
       <c r="A17" s="2">
         <v>2023</v>
       </c>
-      <c r="B17" s="4">
-        <v>1.1046296296296301</v>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -631,8 +631,8 @@
       <c r="A18" s="2">
         <v>2023</v>
       </c>
-      <c r="B18" s="4">
-        <v>1.1462962962962999</v>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -642,8 +642,8 @@
       <c r="A19" s="2">
         <v>2023</v>
       </c>
-      <c r="B19" s="4">
-        <v>1.18796296296296</v>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
